--- a/烧江南烤肉_新.xlsx
+++ b/烧江南烤肉_新.xlsx
@@ -604,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG168"/>
+  <dimension ref="A1:BG181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
@@ -27088,7 +27088,6 @@
           <t>3411</t>
         </is>
       </c>
-      <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr">
         <is>
           <t>1779</t>
@@ -27157,6 +27156,2178 @@
       <c r="AL168" t="inlineStr">
         <is>
           <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL169" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA170" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG170" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL170" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA171" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD171" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG171" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL171" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD172" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG172" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL172" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL173" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL174" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA175" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL175" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL176" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>205.13</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2,926</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>3324.00</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL177" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>205.13</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2,926</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>3324.00</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC178" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL178" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>205.13</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2,926</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>3324.00</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL179" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>205.13</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2,926</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>3324.00</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL180" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>205.13</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2,926</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>3324.00</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>3324</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="W181" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AL181" t="inlineStr">
+        <is>
+          <t>94</t>
         </is>
       </c>
     </row>
